--- a/ECE-3_timetable.xlsx
+++ b/ECE-3_timetable.xlsx
@@ -136,7 +136,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -678,13 +678,9 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="J2" s="6" t="inlineStr">
-        <is>
-          <t>Elective_1</t>
-        </is>
-      </c>
+      <c r="J2" s="2" t="n"/>
       <c r="K2" s="2" t="n"/>
-      <c r="L2" s="7" t="inlineStr">
+      <c r="L2" s="6" t="inlineStr">
         <is>
           <t>MA263 (C405)</t>
         </is>
@@ -695,10 +691,18 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="O2" s="2" t="n"/>
+      <c r="O2" s="7" t="inlineStr">
+        <is>
+          <t>Elective_1</t>
+        </is>
+      </c>
       <c r="P2" s="2" t="n"/>
       <c r="Q2" s="2" t="n"/>
-      <c r="R2" s="2" t="n"/>
+      <c r="R2" s="4" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="S2" s="2" t="n"/>
       <c r="T2" s="2" t="n"/>
     </row>
@@ -734,7 +738,7 @@
       </c>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="7" t="inlineStr">
+      <c r="L3" s="6" t="inlineStr">
         <is>
           <t>MA263 (C405)</t>
         </is>
@@ -745,7 +749,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="O3" s="6" t="inlineStr">
+      <c r="O3" s="7" t="inlineStr">
         <is>
           <t>Elective_1</t>
         </is>
@@ -788,7 +792,7 @@
       <c r="I4" s="2" t="n"/>
       <c r="J4" s="2" t="n"/>
       <c r="K4" s="2" t="n"/>
-      <c r="L4" s="7" t="inlineStr">
+      <c r="L4" s="6" t="inlineStr">
         <is>
           <t>MA263T (C405)</t>
         </is>
@@ -799,10 +803,18 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="O4" s="2" t="n"/>
+      <c r="O4" s="7" t="inlineStr">
+        <is>
+          <t>Elective_1T</t>
+        </is>
+      </c>
       <c r="P4" s="2" t="n"/>
       <c r="Q4" s="2" t="n"/>
-      <c r="R4" s="2" t="n"/>
+      <c r="R4" s="4" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="S4" s="2" t="n"/>
       <c r="T4" s="2" t="n"/>
     </row>
@@ -971,16 +983,18 @@
       <c r="G12" s="11" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C4:F4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1152,7 +1166,11 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="I2" s="2" t="n"/>
+      <c r="I2" s="7" t="inlineStr">
+        <is>
+          <t>Elective_1T</t>
+        </is>
+      </c>
       <c r="J2" s="2" t="n"/>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="14" t="inlineStr">
@@ -1211,11 +1229,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="J3" s="6" t="inlineStr">
-        <is>
-          <t>Elective_1</t>
-        </is>
-      </c>
+      <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="14" t="inlineStr">
         <is>
@@ -1308,9 +1322,17 @@
         </is>
       </c>
       <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>Elective_1</t>
+        </is>
+      </c>
       <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="F5" s="2" t="n"/>
       <c r="G5" s="2" t="n"/>
       <c r="H5" s="2" t="n"/>
@@ -1334,7 +1356,7 @@
         </is>
       </c>
       <c r="B6" s="2" t="n"/>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>Elective_1</t>
         </is>
@@ -1578,14 +1600,16 @@
       <c r="G16" s="19" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E4:I4"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="O2:Q2"/>
